--- a/Code/Results/Cases/Case_3_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_130/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.61334933032454</v>
+        <v>30.2640309149665</v>
       </c>
       <c r="C2">
-        <v>16.50938951249984</v>
+        <v>11.2035715717842</v>
       </c>
       <c r="D2">
-        <v>2.863450179450187</v>
+        <v>4.12540889474795</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>45.40150014706251</v>
+        <v>55.91849187040492</v>
       </c>
       <c r="G2">
-        <v>2.116800006882153</v>
+        <v>3.782953238057835</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.837454639993715</v>
+        <v>10.09795082292669</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.937257636054644</v>
+        <v>12.61300655488907</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.85411240654948</v>
+        <v>22.24781626515347</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.88005946275145</v>
+        <v>29.95707174394685</v>
       </c>
       <c r="C3">
-        <v>15.30005010880313</v>
+        <v>10.8124671800033</v>
       </c>
       <c r="D3">
-        <v>2.700418253462849</v>
+        <v>4.087986001744706</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.89197450562276</v>
+        <v>55.78947207689728</v>
       </c>
       <c r="G3">
-        <v>2.130443583422393</v>
+        <v>3.787673456819107</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.89099092518428</v>
+        <v>10.11795432695479</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.764082334783303</v>
+        <v>12.62176726484598</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.08208113848899</v>
+        <v>22.30910461199847</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.79018077248152</v>
+        <v>29.77591092883957</v>
       </c>
       <c r="C4">
-        <v>14.52310725472287</v>
+        <v>10.56899890970743</v>
       </c>
       <c r="D4">
-        <v>2.598525811914596</v>
+        <v>4.06441794883955</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.99078488582308</v>
+        <v>55.72390133972421</v>
       </c>
       <c r="G4">
-        <v>2.138979523353207</v>
+        <v>3.79071986175247</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.924962795067625</v>
+        <v>10.13093199698501</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.661546714843892</v>
+        <v>12.62931566414995</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.22643829356668</v>
+        <v>22.34875440247665</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.33989181939603</v>
+        <v>29.70400163472665</v>
       </c>
       <c r="C5">
-        <v>14.1976597262344</v>
+        <v>10.46912414969471</v>
       </c>
       <c r="D5">
-        <v>2.556520871004083</v>
+        <v>4.054666416750521</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.63003183559064</v>
+        <v>55.70061762360822</v>
       </c>
       <c r="G5">
-        <v>2.142502147931893</v>
+        <v>3.791998710814223</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.939090710313272</v>
+        <v>10.13639589827031</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.620719670833529</v>
+        <v>12.63293711580206</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.28635271070592</v>
+        <v>22.36541978689812</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.26476077788755</v>
+        <v>29.69217896878287</v>
       </c>
       <c r="C6">
-        <v>14.14308065164119</v>
+        <v>10.45250564914057</v>
       </c>
       <c r="D6">
-        <v>2.549516008204519</v>
+        <v>4.053038313271044</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.57052263099844</v>
+        <v>55.69695903875726</v>
       </c>
       <c r="G6">
-        <v>2.143089861024722</v>
+        <v>3.792213327015807</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.941454006177198</v>
+        <v>10.13731378371964</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.613998290403484</v>
+        <v>12.63357139216176</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.29636681517332</v>
+        <v>22.36821773599539</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.78413246655749</v>
+        <v>29.77493328273244</v>
       </c>
       <c r="C7">
-        <v>14.51875416675766</v>
+        <v>10.5676543891708</v>
       </c>
       <c r="D7">
-        <v>2.597961311553036</v>
+        <v>4.064287031520503</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.98589329928988</v>
+        <v>55.72357340737727</v>
       </c>
       <c r="G7">
-        <v>2.139026846565865</v>
+        <v>3.79073695706168</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.925152169311009</v>
+        <v>10.13100497419891</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.660992226891798</v>
+        <v>12.62936229611686</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.22724193191214</v>
+        <v>22.34897710141293</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.02116852584972</v>
+        <v>30.15672047629354</v>
       </c>
       <c r="C8">
-        <v>16.09943087403465</v>
+        <v>11.06951182679648</v>
       </c>
       <c r="D8">
-        <v>2.807586003837945</v>
+        <v>4.112628616968339</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.87569738105739</v>
+        <v>55.87117722306186</v>
       </c>
       <c r="G8">
-        <v>2.121474052409156</v>
+        <v>3.784550110253329</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.85569019163233</v>
+        <v>10.10470400746658</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.876760116947774</v>
+        <v>12.61557701031959</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.9317958894184</v>
+        <v>22.26852966949716</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.19804657979674</v>
+        <v>30.95989543127078</v>
       </c>
       <c r="C9">
-        <v>18.9357862283846</v>
+        <v>12.02016191023425</v>
       </c>
       <c r="D9">
-        <v>3.206404002574569</v>
+        <v>4.202699142766219</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>48.78659026418884</v>
+        <v>56.26855392673846</v>
       </c>
       <c r="G9">
-        <v>2.088097073295888</v>
+        <v>3.7735863073466</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.727841622163561</v>
+        <v>10.05862216560988</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.330070610898749</v>
+        <v>12.60575537495846</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.38817233938494</v>
+        <v>22.12677830435717</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.13876252822503</v>
+        <v>31.57825317716452</v>
       </c>
       <c r="C10">
-        <v>20.8746272329981</v>
+        <v>12.68973413417336</v>
       </c>
       <c r="D10">
-        <v>3.495437294064097</v>
+        <v>4.265937968654899</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>51.79302732722788</v>
+        <v>56.62560622401765</v>
       </c>
       <c r="G10">
-        <v>2.063867545738014</v>
+        <v>3.766233675277597</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.638449492834219</v>
+        <v>10.02808224941008</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.682130411568714</v>
+        <v>12.60902442413133</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.01254054248765</v>
+        <v>22.03237618115013</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.51224013629184</v>
+        <v>31.86459922398702</v>
       </c>
       <c r="C11">
-        <v>21.72930764617402</v>
+        <v>12.98657244791185</v>
       </c>
       <c r="D11">
-        <v>3.627090814802431</v>
+        <v>4.294058443432807</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>53.19368248439817</v>
+        <v>56.80195585072071</v>
       </c>
       <c r="G11">
-        <v>2.0528167609808</v>
+        <v>3.763039180848184</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.598625985818121</v>
+        <v>10.01490196181499</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.846741324462009</v>
+        <v>12.61278367870404</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.84750723956027</v>
+        <v>21.99154314583947</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.03977960506762</v>
+        <v>31.97366378719698</v>
       </c>
       <c r="C12">
-        <v>22.04943657123553</v>
+        <v>13.09775605365212</v>
       </c>
       <c r="D12">
-        <v>3.677077117313633</v>
+        <v>4.304612877304749</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>53.72935255554994</v>
+        <v>56.87071312367525</v>
       </c>
       <c r="G12">
-        <v>2.048618870855145</v>
+        <v>3.76185095066794</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.583653391663606</v>
+        <v>10.01001284864995</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.909759720997792</v>
+        <v>12.61453322287781</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.78593672468934</v>
+        <v>21.97638426006222</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.92637523754498</v>
+        <v>31.95014820750337</v>
       </c>
       <c r="C13">
-        <v>21.98064043946017</v>
+        <v>13.07386663064691</v>
       </c>
       <c r="D13">
-        <v>3.666303861111362</v>
+        <v>4.302343997247664</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>53.61374153597696</v>
+        <v>56.85581749492123</v>
       </c>
       <c r="G13">
-        <v>2.049523709320683</v>
+        <v>3.762105905457339</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.586873447930803</v>
+        <v>10.01106127880622</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.896156301224462</v>
+        <v>12.61414194197358</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.79915434371973</v>
+        <v>21.97963548750652</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.55573694121468</v>
+        <v>31.87355991874625</v>
       </c>
       <c r="C14">
-        <v>21.75571282498211</v>
+        <v>12.99574466469976</v>
       </c>
       <c r="D14">
-        <v>3.631199881182985</v>
+        <v>4.294928656839318</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>53.23764303647107</v>
+        <v>56.80757307481549</v>
       </c>
       <c r="G14">
-        <v>2.052471719885919</v>
+        <v>3.762940995298945</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.597392105268279</v>
+        <v>10.01449769050741</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.851911874461514</v>
+        <v>12.6129210861209</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.84242271084243</v>
+        <v>21.99028992764999</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.32808319683132</v>
+        <v>31.82672680370306</v>
       </c>
       <c r="C15">
-        <v>21.61749295533118</v>
+        <v>12.94773050574278</v>
       </c>
       <c r="D15">
-        <v>3.609718418659166</v>
+        <v>4.290374249168627</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>53.00797724949359</v>
+        <v>56.77827871003716</v>
       </c>
       <c r="G15">
-        <v>2.054275447901025</v>
+        <v>3.763455301607391</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.603848688901286</v>
+        <v>10.01661585804856</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.824901501414065</v>
+        <v>12.61221570626749</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.86904906759282</v>
+        <v>21.99685563534171</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.05250890063174</v>
+        <v>31.55963333876215</v>
       </c>
       <c r="C16">
-        <v>20.81825567706452</v>
+        <v>12.67016953351071</v>
       </c>
       <c r="D16">
-        <v>3.486845572550745</v>
+        <v>4.26408711049726</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>51.70219625367982</v>
+        <v>56.61435951096978</v>
       </c>
       <c r="G16">
-        <v>2.064588420904641</v>
+        <v>3.766445453604689</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.641067886197972</v>
+        <v>10.0289579081157</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.671465680946101</v>
+        <v>12.60882441032876</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.02345006695995</v>
+        <v>22.03508720545705</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.29381137954682</v>
+        <v>31.3970066437869</v>
       </c>
       <c r="C17">
-        <v>20.32122506637497</v>
+        <v>12.49782828402387</v>
       </c>
       <c r="D17">
-        <v>3.411580819222911</v>
+        <v>4.247794240460212</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>50.90991449518412</v>
+        <v>56.51735019311024</v>
       </c>
       <c r="G17">
-        <v>2.070901743948841</v>
+        <v>3.768318191394898</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.664107226689401</v>
+        <v>10.03671149690365</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.578504796025332</v>
+        <v>12.607325441047</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.11971912318482</v>
+        <v>22.05908179393592</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.85501963626756</v>
+        <v>31.30394931042601</v>
       </c>
       <c r="C18">
-        <v>20.03274802683487</v>
+        <v>12.39797795257686</v>
       </c>
       <c r="D18">
-        <v>3.368299034544393</v>
+        <v>4.238362161516668</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50.45728075679958</v>
+        <v>56.46286536074106</v>
       </c>
       <c r="G18">
-        <v>2.074530925000353</v>
+        <v>3.769409492342488</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.677438931430094</v>
+        <v>10.0412382457755</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.525452226121001</v>
+        <v>12.60667719356176</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.17563430176705</v>
+        <v>22.07308152949161</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.70602968795784</v>
+        <v>31.27252723766559</v>
       </c>
       <c r="C19">
-        <v>19.93461704401092</v>
+        <v>12.36404945663726</v>
       </c>
       <c r="D19">
-        <v>3.353643088474024</v>
+        <v>4.235158204905942</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.30454022345039</v>
+        <v>56.44464383628942</v>
       </c>
       <c r="G19">
-        <v>2.075759600324986</v>
+        <v>3.769781423260415</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.681966950422397</v>
+        <v>10.042782462471</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.507559955905677</v>
+        <v>12.60649446873196</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.19465743585973</v>
+        <v>22.07785571956829</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.37482315185422</v>
+        <v>31.41426941359396</v>
       </c>
       <c r="C20">
-        <v>20.37440098096215</v>
+        <v>12.51625007736241</v>
       </c>
       <c r="D20">
-        <v>3.419591288037227</v>
+        <v>4.249534950307023</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>50.99393372119449</v>
+        <v>56.52754134607626</v>
       </c>
       <c r="G20">
-        <v>2.070229955875611</v>
+        <v>3.768117371707105</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.661646451960003</v>
+        <v>10.03587917408455</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.588357320978391</v>
+        <v>12.60746287378418</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.10941430852957</v>
+        <v>22.05650696519659</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.66473202140645</v>
+        <v>31.89603937344405</v>
       </c>
       <c r="C21">
-        <v>21.8218714776971</v>
+        <v>13.01872495638328</v>
       </c>
       <c r="D21">
-        <v>3.641506226427135</v>
+        <v>4.297109286820222</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>53.34796406833811</v>
+        <v>56.8216901758168</v>
       </c>
       <c r="G21">
-        <v>2.051606255715844</v>
+        <v>3.762695128073833</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.59429971214784</v>
+        <v>10.01348556928281</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.864888549589256</v>
+        <v>12.61327084033462</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.82968787622095</v>
+        <v>21.98715221666441</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.19164146434145</v>
+        <v>32.21454093545746</v>
       </c>
       <c r="C22">
-        <v>22.74759920925281</v>
+        <v>13.33995382790774</v>
       </c>
       <c r="D22">
-        <v>3.787375892504615</v>
+        <v>4.327652419570683</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>54.91757712937214</v>
+        <v>57.02544603562289</v>
       </c>
       <c r="G22">
-        <v>2.039352304613943</v>
+        <v>3.759276367766498</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.550905015755822</v>
+        <v>9.999444227709768</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.049636495387039</v>
+        <v>12.61896637707949</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.65231405844557</v>
+        <v>21.94359516222415</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.37911243745206</v>
+        <v>32.04424923750194</v>
       </c>
       <c r="C23">
-        <v>22.25522389894414</v>
+        <v>13.16919608222499</v>
       </c>
       <c r="D23">
-        <v>3.709404743957226</v>
+        <v>4.311401609777483</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>54.07677318337662</v>
+        <v>56.91565333153036</v>
       </c>
       <c r="G23">
-        <v>2.045903405919786</v>
+        <v>3.761089637757819</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.574013687660419</v>
+        <v>10.00688414567004</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.9506464895678</v>
+        <v>12.6157530260958</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.74644936028627</v>
+        <v>21.96668034261709</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.33820587360281</v>
+        <v>31.40646354102897</v>
       </c>
       <c r="C24">
-        <v>20.35036867532902</v>
+        <v>12.5079239717102</v>
       </c>
       <c r="D24">
-        <v>3.41596979736127</v>
+        <v>4.248748178043945</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>50.95593975924076</v>
+        <v>56.52292991489235</v>
       </c>
       <c r="G24">
-        <v>2.070533671947646</v>
+        <v>3.768208116679189</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.662758699114883</v>
+        <v>10.0362552519409</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.583901776814482</v>
+        <v>12.60740007529173</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.11407134956666</v>
+        <v>22.05767040697844</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.0910074952766</v>
+        <v>30.73728335182179</v>
       </c>
       <c r="C25">
-        <v>18.19519656893763</v>
+        <v>11.76750052393386</v>
       </c>
       <c r="D25">
-        <v>3.099509262643662</v>
+        <v>4.178844397780956</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>47.7061502928665</v>
+        <v>56.1495568246779</v>
       </c>
       <c r="G25">
-        <v>2.097047407250244</v>
+        <v>3.776428228706632</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.761587063033119</v>
+        <v>10.07050375496059</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.20417065938425</v>
+        <v>12.60656994293931</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.53124602910322</v>
+        <v>22.16341395584864</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_130/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.2640309149665</v>
+        <v>29.61334933032455</v>
       </c>
       <c r="C2">
-        <v>11.2035715717842</v>
+        <v>16.50938951250002</v>
       </c>
       <c r="D2">
-        <v>4.12540889474795</v>
+        <v>2.863450179450197</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>55.91849187040492</v>
+        <v>45.40150014706236</v>
       </c>
       <c r="G2">
-        <v>3.782953238057835</v>
+        <v>2.116800006881754</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.09795082292669</v>
+        <v>5.837454639993746</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.61300655488907</v>
+        <v>7.937257636054612</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.24781626515347</v>
+        <v>14.8541124065494</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.95707174394685</v>
+        <v>27.88005946275145</v>
       </c>
       <c r="C3">
-        <v>10.8124671800033</v>
+        <v>15.30005010880305</v>
       </c>
       <c r="D3">
-        <v>4.087986001744706</v>
+        <v>2.700418253462658</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>55.78947207689728</v>
+        <v>43.89197450562276</v>
       </c>
       <c r="G3">
-        <v>3.787673456819107</v>
+        <v>2.130443583422133</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.11795432695479</v>
+        <v>5.89099092518425</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.62176726484598</v>
+        <v>7.764082334783248</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.30910461199847</v>
+        <v>15.08208113848908</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.77591092883957</v>
+        <v>26.79018077248144</v>
       </c>
       <c r="C4">
-        <v>10.56899890970743</v>
+        <v>14.52310725472292</v>
       </c>
       <c r="D4">
-        <v>4.06441794883955</v>
+        <v>2.598525811914422</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>55.72390133972421</v>
+        <v>42.99078488582273</v>
       </c>
       <c r="G4">
-        <v>3.79071986175247</v>
+        <v>2.138979523352939</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.13093199698501</v>
+        <v>5.924962795067692</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.62931566414995</v>
+        <v>7.661546714843912</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.34875440247665</v>
+        <v>15.2264382935665</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.70400163472665</v>
+        <v>26.33989181939599</v>
       </c>
       <c r="C5">
-        <v>10.46912414969471</v>
+        <v>14.19765972623428</v>
       </c>
       <c r="D5">
-        <v>4.054666416750521</v>
+        <v>2.556520871004022</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.70061762360822</v>
+        <v>42.63003183559065</v>
       </c>
       <c r="G5">
-        <v>3.791998710814223</v>
+        <v>2.142502147931629</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.13639589827031</v>
+        <v>5.93909071031321</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.63293711580206</v>
+        <v>7.620719670833555</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.36541978689812</v>
+        <v>15.28635271070594</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.69217896878287</v>
+        <v>26.26476077788746</v>
       </c>
       <c r="C6">
-        <v>10.45250564914057</v>
+        <v>14.14308065164118</v>
       </c>
       <c r="D6">
-        <v>4.053038313271044</v>
+        <v>2.549516008204619</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.69695903875726</v>
+        <v>42.57052263099829</v>
       </c>
       <c r="G6">
-        <v>3.792213327015807</v>
+        <v>2.14308986102432</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.13731378371964</v>
+        <v>5.941454006177256</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.63357139216176</v>
+        <v>7.613998290403543</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.36821773599539</v>
+        <v>15.29636681517333</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.77493328273244</v>
+        <v>26.78413246655748</v>
       </c>
       <c r="C7">
-        <v>10.5676543891708</v>
+        <v>14.51875416675764</v>
       </c>
       <c r="D7">
-        <v>4.064287031520503</v>
+        <v>2.597961311552914</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>55.72357340737727</v>
+        <v>42.9858932992899</v>
       </c>
       <c r="G7">
-        <v>3.79073695706168</v>
+        <v>2.139026846565992</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.13100497419891</v>
+        <v>5.925152169311106</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.62936229611686</v>
+        <v>7.660992226891918</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.34897710141293</v>
+        <v>15.22724193191216</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.15672047629354</v>
+        <v>29.02116852584972</v>
       </c>
       <c r="C8">
-        <v>11.06951182679648</v>
+        <v>16.09943087403465</v>
       </c>
       <c r="D8">
-        <v>4.112628616968339</v>
+        <v>2.807586003837829</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>55.87117722306186</v>
+        <v>44.87569738105743</v>
       </c>
       <c r="G8">
-        <v>3.784550110253329</v>
+        <v>2.121474052409287</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.10470400746658</v>
+        <v>5.855690191632427</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.61557701031959</v>
+        <v>7.876760116947837</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.26852966949716</v>
+        <v>14.93179588941843</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.95989543127078</v>
+        <v>33.19804657979678</v>
       </c>
       <c r="C9">
-        <v>12.02016191023425</v>
+        <v>18.93578622838472</v>
       </c>
       <c r="D9">
-        <v>4.202699142766219</v>
+        <v>3.206404002574615</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>56.26855392673846</v>
+        <v>48.7865902641888</v>
       </c>
       <c r="G9">
-        <v>3.7735863073466</v>
+        <v>2.088097073295764</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.05862216560988</v>
+        <v>5.727841622163496</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.60575537495846</v>
+        <v>8.33007061089876</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.12677830435717</v>
+        <v>14.38817233938481</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.57825317716452</v>
+        <v>36.13876252822515</v>
       </c>
       <c r="C10">
-        <v>12.68973413417336</v>
+        <v>20.87462723299825</v>
       </c>
       <c r="D10">
-        <v>4.265937968654899</v>
+        <v>3.495437294064281</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>56.62560622401765</v>
+        <v>51.79302732722797</v>
       </c>
       <c r="G10">
-        <v>3.766233675277597</v>
+        <v>2.063867545738408</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.02808224941008</v>
+        <v>5.638449492834162</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.60902442413133</v>
+        <v>8.682130411568705</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.03237618115013</v>
+        <v>14.01254054248758</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.86459922398702</v>
+        <v>37.51224013629166</v>
       </c>
       <c r="C11">
-        <v>12.98657244791185</v>
+        <v>21.72930764617384</v>
       </c>
       <c r="D11">
-        <v>4.294058443432807</v>
+        <v>3.627090814802179</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>56.80195585072071</v>
+        <v>53.19368248439805</v>
       </c>
       <c r="G11">
-        <v>3.763039180848184</v>
+        <v>2.05281676098106</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.01490196181499</v>
+        <v>5.598625985818082</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.61278367870404</v>
+        <v>8.846741324461998</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.99154314583947</v>
+        <v>13.84750723956035</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.97366378719698</v>
+        <v>38.03977960506764</v>
       </c>
       <c r="C12">
-        <v>13.09775605365212</v>
+        <v>22.04943657123567</v>
       </c>
       <c r="D12">
-        <v>4.304612877304749</v>
+        <v>3.677077117313808</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>56.87071312367525</v>
+        <v>53.72935255554998</v>
       </c>
       <c r="G12">
-        <v>3.76185095066794</v>
+        <v>2.048618870855148</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.01001284864995</v>
+        <v>5.583653391663609</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.61453322287781</v>
+        <v>8.909759720997791</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.97638426006222</v>
+        <v>13.78593672468932</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.95014820750337</v>
+        <v>37.92637523754479</v>
       </c>
       <c r="C13">
-        <v>13.07386663064691</v>
+        <v>21.98064043946017</v>
       </c>
       <c r="D13">
-        <v>4.302343997247664</v>
+        <v>3.666303861111168</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>56.85581749492123</v>
+        <v>53.61374153597699</v>
       </c>
       <c r="G13">
-        <v>3.762105905457339</v>
+        <v>2.049523709320818</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.01106127880622</v>
+        <v>5.586873447930889</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.61414194197358</v>
+        <v>8.896156301224432</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.97963548750652</v>
+        <v>13.79915434371989</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.87355991874625</v>
+        <v>37.55573694121478</v>
       </c>
       <c r="C14">
-        <v>12.99574466469976</v>
+        <v>21.75571282498208</v>
       </c>
       <c r="D14">
-        <v>4.294928656839318</v>
+        <v>3.631199881183097</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>56.80757307481549</v>
+        <v>53.23764303647123</v>
       </c>
       <c r="G14">
-        <v>3.762940995298945</v>
+        <v>2.052471719885914</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.01449769050741</v>
+        <v>5.597392105268212</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.6129210861209</v>
+        <v>8.851911874461496</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.99028992764999</v>
+        <v>13.84242271084246</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.82672680370306</v>
+        <v>37.32808319683114</v>
       </c>
       <c r="C15">
-        <v>12.94773050574278</v>
+        <v>21.61749295533103</v>
       </c>
       <c r="D15">
-        <v>4.290374249168627</v>
+        <v>3.609718418658961</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>56.77827871003716</v>
+        <v>53.0079772494936</v>
       </c>
       <c r="G15">
-        <v>3.763455301607391</v>
+        <v>2.054275447901149</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.01661585804856</v>
+        <v>5.603848688901457</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.61221570626749</v>
+        <v>8.824901501414123</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.99685563534171</v>
+        <v>13.86904906759304</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.55963333876215</v>
+        <v>36.05250890063183</v>
       </c>
       <c r="C16">
-        <v>12.67016953351071</v>
+        <v>20.81825567706449</v>
       </c>
       <c r="D16">
-        <v>4.26408711049726</v>
+        <v>3.486845572550524</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>56.61435951096978</v>
+        <v>51.70219625367971</v>
       </c>
       <c r="G16">
-        <v>3.766445453604689</v>
+        <v>2.064588420904513</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.0289579081157</v>
+        <v>5.641067886197919</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.60882441032876</v>
+        <v>8.67146568094603</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.03508720545705</v>
+        <v>14.02345006695979</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.3970066437869</v>
+        <v>35.29381137954682</v>
       </c>
       <c r="C17">
-        <v>12.49782828402387</v>
+        <v>20.32122506637496</v>
       </c>
       <c r="D17">
-        <v>4.247794240460212</v>
+        <v>3.411580819223022</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>56.51735019311024</v>
+        <v>50.90991449518415</v>
       </c>
       <c r="G17">
-        <v>3.768318191394898</v>
+        <v>2.070901743948971</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.03671149690365</v>
+        <v>5.664107226689337</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.607325441047</v>
+        <v>8.57850479602533</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.05908179393592</v>
+        <v>14.11971912318485</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.30394931042601</v>
+        <v>34.85501963626763</v>
       </c>
       <c r="C18">
-        <v>12.39797795257686</v>
+        <v>20.03274802683514</v>
       </c>
       <c r="D18">
-        <v>4.238362161516668</v>
+        <v>3.368299034544439</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>56.46286536074106</v>
+        <v>50.45728075679949</v>
       </c>
       <c r="G18">
-        <v>3.769409492342488</v>
+        <v>2.07453092500048</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.0412382457755</v>
+        <v>5.677438931430184</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.60667719356176</v>
+        <v>8.525452226120986</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.07308152949161</v>
+        <v>14.17563430176695</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.27252723766559</v>
+        <v>34.70602968795787</v>
       </c>
       <c r="C19">
-        <v>12.36404945663726</v>
+        <v>19.93461704401091</v>
       </c>
       <c r="D19">
-        <v>4.235158204905942</v>
+        <v>3.353643088473959</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>56.44464383628942</v>
+        <v>50.30454022345038</v>
       </c>
       <c r="G19">
-        <v>3.769781423260415</v>
+        <v>2.075759600324983</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.042782462471</v>
+        <v>5.68196695042249</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.60649446873196</v>
+        <v>8.507559955905709</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.07785571956829</v>
+        <v>14.1946574358597</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.41426941359396</v>
+        <v>35.3748231518543</v>
       </c>
       <c r="C20">
-        <v>12.51625007736241</v>
+        <v>20.37440098096225</v>
       </c>
       <c r="D20">
-        <v>4.249534950307023</v>
+        <v>3.419591288037347</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>56.52754134607626</v>
+        <v>50.99393372119459</v>
       </c>
       <c r="G20">
-        <v>3.768117371707105</v>
+        <v>2.070229955875875</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.03587917408455</v>
+        <v>5.661646451960035</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.60746287378418</v>
+        <v>8.588357320978385</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.05650696519659</v>
+        <v>14.10941430852954</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.89603937344405</v>
+        <v>37.66473202140654</v>
       </c>
       <c r="C21">
-        <v>13.01872495638328</v>
+        <v>21.82187147769717</v>
       </c>
       <c r="D21">
-        <v>4.297109286820222</v>
+        <v>3.641506226427201</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>56.8216901758168</v>
+        <v>53.34796406833819</v>
       </c>
       <c r="G21">
-        <v>3.762695128073833</v>
+        <v>2.051606255716106</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.01348556928281</v>
+        <v>5.594299712147902</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.61327084033462</v>
+        <v>8.864888549589251</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.98715221666441</v>
+        <v>13.82968787622091</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.21454093545746</v>
+        <v>39.19164146434135</v>
       </c>
       <c r="C22">
-        <v>13.33995382790774</v>
+        <v>22.74759920925282</v>
       </c>
       <c r="D22">
-        <v>4.327652419570683</v>
+        <v>3.787375892504744</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>57.02544603562289</v>
+        <v>54.91757712937206</v>
       </c>
       <c r="G22">
-        <v>3.759276367766498</v>
+        <v>2.039352304613682</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.999444227709768</v>
+        <v>5.550905015755829</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.61896637707949</v>
+        <v>9.049636495387055</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.94359516222415</v>
+        <v>13.65231405844559</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.04424923750194</v>
+        <v>38.37911243745209</v>
       </c>
       <c r="C23">
-        <v>13.16919608222499</v>
+        <v>22.25522389894409</v>
       </c>
       <c r="D23">
-        <v>4.311401609777483</v>
+        <v>3.709404743957069</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>56.91565333153036</v>
+        <v>54.07677318337662</v>
       </c>
       <c r="G23">
-        <v>3.761089637757819</v>
+        <v>2.045903405919519</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.00688414567004</v>
+        <v>5.574013687660478</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.6157530260958</v>
+        <v>8.950646489567808</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.96668034261709</v>
+        <v>13.7464493602863</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.40646354102897</v>
+        <v>35.3382058736028</v>
       </c>
       <c r="C24">
-        <v>12.5079239717102</v>
+        <v>20.35036867532889</v>
       </c>
       <c r="D24">
-        <v>4.248748178043945</v>
+        <v>3.415969797361159</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>56.52292991489235</v>
+        <v>50.95593975924076</v>
       </c>
       <c r="G24">
-        <v>3.768208116679189</v>
+        <v>2.070533671947519</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.0362552519409</v>
+        <v>5.662758699114848</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.60740007529173</v>
+        <v>8.583901776814503</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.05767040697844</v>
+        <v>14.11407134956665</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.73728335182179</v>
+        <v>32.09100749527661</v>
       </c>
       <c r="C25">
-        <v>11.76750052393386</v>
+        <v>18.19519656893774</v>
       </c>
       <c r="D25">
-        <v>4.178844397780956</v>
+        <v>3.09950926264375</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>56.1495568246779</v>
+        <v>47.7061502928665</v>
       </c>
       <c r="G25">
-        <v>3.776428228706632</v>
+        <v>2.097047407250246</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.07050375496059</v>
+        <v>5.761587063033089</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.60656994293931</v>
+        <v>8.204170659384195</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.16341395584864</v>
+        <v>14.53124602910318</v>
       </c>
       <c r="O25">
         <v>0</v>
